--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121119-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121119-1.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3895,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4465,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4541,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4921,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5567,12 +5567,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6137,12 +6137,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6517,12 +6517,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7095,12 +7095,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7133,12 +7133,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
